--- a/Assets/TestResults/Non-ThreadedInitialLoadTime.xlsx
+++ b/Assets/TestResults/Non-ThreadedInitialLoadTime.xlsx
@@ -1,21 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\b012521i\Documents\GitHub\Procedural-Voxel-Terrain\Assets\TestResults\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Procedural-Voxel-Terrain\Assets\TestResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{24B655AF-1122-4859-85D1-8C3AB01FF4CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B36C17FC-A762-4B7C-BF24-73ADDE0916C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Non-ThreadedInitialLoadTime" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -49,7 +61,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -587,12 +599,2533 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Graph of Elapsed Time (ms)</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Against the Seed Used</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Non-ThreadedInitialLoadTime'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ElapsedTime(ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Non-ThreadedInitialLoadTime'!$B$2:$B$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>30623</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30732</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31365</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31433</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31447</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31502</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31550</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31631</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31690</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31703</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31710</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>31762</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>31880</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>31881</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>32047</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32062</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>32114</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>32131</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>32193</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>32218</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>32281</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>32313</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>32334</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>32552</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>32593</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>32681</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>32714</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32776</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>32898</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>32900</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>32956</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32980</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33003</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33019</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>33024</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>33067</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>33085</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>33088</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>33094</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>33095</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>33123</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>33192</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>33252</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>33262</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>33264</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>33269</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>33299</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>33345</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>33408</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>33415</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>33420</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>33472</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>33528</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>33528</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>33538</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>33563</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>33623</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>33674</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>33720</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>33736</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>33854</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>33891</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>33904</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>33941</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>33953</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>34009</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>34097</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>34113</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>34134</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>34192</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>34199</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>34295</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>34297</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>34342</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>34401</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>34451</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>34519</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>34611</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>34618</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>34651</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>34707</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>34778</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>34823</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>34825</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>34836</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>34864</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>34937</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>34955</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>34987</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>35003</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>35043</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>35188</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>35450</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>35859</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>35916</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>36476</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>37153</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>37454</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>37530</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>37974</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-715B-46A5-AA43-6C88F4999AD4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="208890847"/>
+        <c:axId val="208888767"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="208890847"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Seed Used</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="208888767"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="208888767"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Elapsed Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="208890847"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Graph</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> of Elapsed Time (ms) in Ascending Order</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.35948600174978135"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Non-ThreadedInitialLoadTime'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ElapsedTime(ms)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'Non-ThreadedInitialLoadTime'!$B$2:$B$102</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="101"/>
+                <c:pt idx="0">
+                  <c:v>30623</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30732</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31365</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31433</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31447</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31502</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31550</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>31631</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31690</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31703</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31710</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>31762</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>31880</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>31881</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>32047</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>32062</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>32114</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>32131</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>32193</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>32218</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>32281</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>32313</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>32334</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>32552</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>32593</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>32681</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>32714</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32776</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>32898</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>32900</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>32956</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32980</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33003</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33019</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>33024</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>33067</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>33085</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>33088</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>33094</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>33095</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>33123</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>33192</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>33252</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>33262</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>33264</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>33269</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>33299</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>33345</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>33408</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>33415</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>33420</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>33472</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>33528</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>33528</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>33538</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>33563</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>33623</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>33674</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>33720</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>33736</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>33854</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>33891</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>33904</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>33941</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>33953</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>34009</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>34097</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>34113</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>34134</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>34192</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>34199</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>34295</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>34297</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>34342</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>34401</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>34451</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>34519</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>34611</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>34618</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>34651</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>34707</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>34778</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>34823</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>34825</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>34836</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>34864</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>34937</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>34955</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>34987</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>35003</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>35043</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>35188</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>35450</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>35859</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>35916</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>36476</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>37153</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>37454</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>37530</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>37974</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-507F-4A7E-882C-91C92CC9646C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="681085071"/>
+        <c:axId val="681105871"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="681085071"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="681105871"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="681105871"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Elapsed Time (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="681085071"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{661B7E5C-9D43-4612-AC30-F322EA74D21C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66650FF9-4138-4BB1-8AE2-49A2ED564F90}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:B101" totalsRowShown="0">
-  <autoFilter ref="A1:B101"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:B101" totalsRowShown="0">
+  <autoFilter ref="A1:B101" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B101">
+    <sortCondition ref="B1:B101"/>
+  </sortState>
   <tableColumns count="2">
-    <tableColumn id="1" name="Seed"/>
-    <tableColumn id="2" name="ElapsedTime(ms)"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Seed"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ElapsedTime(ms)"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -894,11 +3427,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D7"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -923,10 +3456,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>94</v>
       </c>
       <c r="B2">
-        <v>34097</v>
+        <v>30623</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
@@ -938,18 +3471,18 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>77</v>
       </c>
       <c r="B3">
-        <v>34987</v>
+        <v>30732</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>82</v>
       </c>
       <c r="B4">
-        <v>33891</v>
+        <v>31365</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
@@ -961,10 +3494,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>75</v>
       </c>
       <c r="B5">
-        <v>34342</v>
+        <v>31433</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -976,10 +3509,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <v>67</v>
       </c>
       <c r="B6">
-        <v>34955</v>
+        <v>31447</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
@@ -991,10 +3524,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6</v>
+        <v>87</v>
       </c>
       <c r="B7">
-        <v>34836</v>
+        <v>31502</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
@@ -1006,274 +3539,274 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="B8">
-        <v>33953</v>
+        <v>31550</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>8</v>
+        <v>74</v>
       </c>
       <c r="B9">
-        <v>34113</v>
+        <v>31631</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>9</v>
+        <v>86</v>
       </c>
       <c r="B10">
-        <v>33269</v>
+        <v>31690</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>10</v>
+        <v>89</v>
       </c>
       <c r="B11">
-        <v>33095</v>
+        <v>31703</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>11</v>
+        <v>84</v>
       </c>
       <c r="B12">
-        <v>34199</v>
+        <v>31710</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>12</v>
+        <v>93</v>
       </c>
       <c r="B13">
-        <v>33736</v>
+        <v>31762</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>13</v>
+        <v>76</v>
       </c>
       <c r="B14">
-        <v>33415</v>
+        <v>31880</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="B15">
-        <v>33528</v>
+        <v>31881</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="B16">
-        <v>37153</v>
+        <v>32047</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="B17">
-        <v>33299</v>
+        <v>32062</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="B18">
-        <v>33674</v>
+        <v>32114</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="B19">
-        <v>35450</v>
+        <v>32131</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>19</v>
+        <v>57</v>
       </c>
       <c r="B20">
-        <v>34451</v>
+        <v>32193</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="B21">
-        <v>32956</v>
+        <v>32218</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="B22">
-        <v>33067</v>
+        <v>32281</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="B23">
-        <v>33941</v>
+        <v>32313</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B24">
-        <v>34778</v>
+        <v>32334</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="B25">
-        <v>32681</v>
+        <v>32552</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>25</v>
+        <v>80</v>
       </c>
       <c r="B26">
-        <v>33262</v>
+        <v>32593</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B27">
-        <v>37974</v>
+        <v>32681</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>27</v>
+        <v>92</v>
       </c>
       <c r="B28">
-        <v>37530</v>
+        <v>32714</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>28</v>
+        <v>90</v>
       </c>
       <c r="B29">
-        <v>35188</v>
+        <v>32776</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="B30">
-        <v>34295</v>
+        <v>32898</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>34618</v>
+        <v>32900</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B32">
-        <v>37454</v>
+        <v>32956</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="B33">
-        <v>34864</v>
+        <v>32980</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="B34">
-        <v>33472</v>
+        <v>33003</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="B35">
-        <v>33264</v>
+        <v>33019</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="B36">
-        <v>34707</v>
+        <v>33024</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="B37">
-        <v>32334</v>
+        <v>33067</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="B38">
-        <v>34611</v>
+        <v>33085</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="B39">
-        <v>35916</v>
+        <v>33088</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="B40">
-        <v>32900</v>
+        <v>33094</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="B41">
-        <v>33904</v>
+        <v>33095</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -1286,480 +3819,481 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="B43">
-        <v>33528</v>
+        <v>33192</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="B44">
-        <v>32980</v>
+        <v>33252</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="B45">
-        <v>34651</v>
+        <v>33262</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B46">
-        <v>34401</v>
+        <v>33264</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>46</v>
+        <v>9</v>
       </c>
       <c r="B47">
-        <v>36476</v>
+        <v>33269</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="B48">
-        <v>35859</v>
+        <v>33299</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="B49">
-        <v>33623</v>
+        <v>33345</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="B50">
-        <v>34825</v>
+        <v>33408</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B51">
-        <v>33563</v>
+        <v>33415</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B52">
-        <v>34937</v>
+        <v>33420</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B53">
-        <v>33420</v>
+        <v>33472</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="B54">
-        <v>35003</v>
+        <v>33528</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="B55">
-        <v>33538</v>
+        <v>33528</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56">
-        <v>33024</v>
+        <v>33538</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B57">
-        <v>34009</v>
+        <v>33563</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B58">
-        <v>32193</v>
+        <v>33623</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="B59">
-        <v>34134</v>
+        <v>33674</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B60">
-        <v>33094</v>
+        <v>33720</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>60</v>
+        <v>12</v>
       </c>
       <c r="B61">
-        <v>33720</v>
+        <v>33736</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="B62">
-        <v>33408</v>
+        <v>33854</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>62</v>
+        <v>3</v>
       </c>
       <c r="B63">
-        <v>32047</v>
+        <v>33891</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="B64">
-        <v>34297</v>
+        <v>33904</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>64</v>
+        <v>22</v>
       </c>
       <c r="B65">
-        <v>32313</v>
+        <v>33941</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>65</v>
+        <v>7</v>
       </c>
       <c r="B66">
-        <v>33252</v>
+        <v>33953</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B67">
-        <v>32898</v>
+        <v>34009</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>67</v>
+        <v>1</v>
       </c>
       <c r="B68">
-        <v>31447</v>
+        <v>34097</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>68</v>
+        <v>8</v>
       </c>
       <c r="B69">
-        <v>32281</v>
+        <v>34113</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B70">
-        <v>32131</v>
+        <v>34134</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="B71">
-        <v>33003</v>
+        <v>34192</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>71</v>
+        <v>11</v>
       </c>
       <c r="B72">
-        <v>31550</v>
+        <v>34199</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="B73">
-        <v>33192</v>
+        <v>34295</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B74">
-        <v>33088</v>
+        <v>34297</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="B75">
-        <v>31631</v>
+        <v>34342</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="B76">
-        <v>31433</v>
+        <v>34401</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="B77">
-        <v>31880</v>
+        <v>34451</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="B78">
-        <v>30732</v>
+        <v>34519</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="B79">
-        <v>32114</v>
+        <v>34611</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="B80">
-        <v>32062</v>
+        <v>34618</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="B81">
-        <v>32593</v>
+        <v>34651</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="B82">
-        <v>33019</v>
+        <v>34707</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="B83">
-        <v>31365</v>
+        <v>34778</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="B84">
-        <v>32552</v>
+        <v>34823</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="B85">
-        <v>31710</v>
+        <v>34825</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>85</v>
+        <v>6</v>
       </c>
       <c r="B86">
-        <v>33085</v>
+        <v>34836</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="B87">
-        <v>31690</v>
+        <v>34864</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="B88">
-        <v>31502</v>
+        <v>34937</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="B89">
-        <v>32218</v>
+        <v>34955</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>89</v>
+        <v>2</v>
       </c>
       <c r="B90">
-        <v>31703</v>
+        <v>34987</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="B91">
-        <v>32776</v>
+        <v>35003</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>33345</v>
+        <v>35043</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>92</v>
+        <v>28</v>
       </c>
       <c r="B93">
-        <v>32714</v>
+        <v>35188</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>93</v>
+        <v>18</v>
       </c>
       <c r="B94">
-        <v>31762</v>
+        <v>35450</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="B95">
-        <v>30623</v>
+        <v>35859</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="B96">
-        <v>33854</v>
+        <v>35916</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="B97">
-        <v>31881</v>
+        <v>36476</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="B98">
-        <v>35043</v>
+        <v>37153</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="B99">
-        <v>34823</v>
+        <v>37454</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="B100">
-        <v>34192</v>
+        <v>37530</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>100</v>
+        <v>26</v>
       </c>
       <c r="B101">
-        <v>34519</v>
+        <v>37974</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>